--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.395034</v>
+        <v>56.474495</v>
       </c>
       <c r="H2">
-        <v>64.185102</v>
+        <v>169.423485</v>
       </c>
       <c r="I2">
-        <v>0.03113537258663955</v>
+        <v>0.07697332820592415</v>
       </c>
       <c r="J2">
-        <v>0.03113537258663955</v>
+        <v>0.07697332820592413</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.321725333333333</v>
+        <v>11.22915</v>
       </c>
       <c r="N2">
-        <v>21.965176</v>
+        <v>33.68745</v>
       </c>
       <c r="O2">
-        <v>0.2286194065168946</v>
+        <v>0.3151195889384558</v>
       </c>
       <c r="P2">
-        <v>0.2286194065168946</v>
+        <v>0.3151195889384559</v>
       </c>
       <c r="Q2">
-        <v>156.648562445328</v>
+        <v>634.1605755292499</v>
       </c>
       <c r="R2">
-        <v>1409.837062007952</v>
+        <v>5707.44517976325</v>
       </c>
       <c r="S2">
-        <v>0.007118150402439923</v>
+        <v>0.02425580354347566</v>
       </c>
       <c r="T2">
-        <v>0.007118150402439925</v>
+        <v>0.02425580354347566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.395034</v>
+        <v>56.474495</v>
       </c>
       <c r="H3">
-        <v>64.185102</v>
+        <v>169.423485</v>
       </c>
       <c r="I3">
-        <v>0.03113537258663955</v>
+        <v>0.07697332820592415</v>
       </c>
       <c r="J3">
-        <v>0.03113537258663955</v>
+        <v>0.07697332820592413</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>44.433863</v>
       </c>
       <c r="O3">
-        <v>0.462479489730153</v>
+        <v>0.4156438271079486</v>
       </c>
       <c r="P3">
-        <v>0.462479489730153</v>
+        <v>0.4156438271079486</v>
       </c>
       <c r="Q3">
-        <v>316.888003212114</v>
+        <v>836.4599912747283</v>
       </c>
       <c r="R3">
-        <v>2851.992028909026</v>
+        <v>7528.139921472555</v>
       </c>
       <c r="S3">
-        <v>0.01439947122642725</v>
+        <v>0.03199348872074652</v>
       </c>
       <c r="T3">
-        <v>0.01439947122642726</v>
+        <v>0.03199348872074651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.395034</v>
+        <v>56.474495</v>
       </c>
       <c r="H4">
-        <v>64.185102</v>
+        <v>169.423485</v>
       </c>
       <c r="I4">
-        <v>0.03113537258663955</v>
+        <v>0.07697332820592415</v>
       </c>
       <c r="J4">
-        <v>0.03113537258663955</v>
+        <v>0.07697332820592413</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.370601</v>
+        <v>7.711507</v>
       </c>
       <c r="N4">
-        <v>22.111803</v>
+        <v>23.134521</v>
       </c>
       <c r="O4">
-        <v>0.2301455394155954</v>
+        <v>0.2164052413527315</v>
       </c>
       <c r="P4">
-        <v>0.2301455394155954</v>
+        <v>0.2164052413527315</v>
       </c>
       <c r="Q4">
-        <v>157.694258995434</v>
+        <v>435.503463513965</v>
       </c>
       <c r="R4">
-        <v>1419.248330958906</v>
+        <v>3919.531171625685</v>
       </c>
       <c r="S4">
-        <v>0.007165667118857699</v>
+        <v>0.01665743166812603</v>
       </c>
       <c r="T4">
-        <v>0.007165667118857701</v>
+        <v>0.01665743166812603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.395034</v>
+        <v>56.474495</v>
       </c>
       <c r="H5">
-        <v>64.185102</v>
+        <v>169.423485</v>
       </c>
       <c r="I5">
-        <v>0.03113537258663955</v>
+        <v>0.07697332820592415</v>
       </c>
       <c r="J5">
-        <v>0.03113537258663955</v>
+        <v>0.07697332820592413</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.522212</v>
+        <v>1.882622</v>
       </c>
       <c r="N5">
-        <v>7.566636</v>
+        <v>5.647866</v>
       </c>
       <c r="O5">
-        <v>0.07875556433735698</v>
+        <v>0.05283134260086414</v>
       </c>
       <c r="P5">
-        <v>0.07875556433735698</v>
+        <v>0.05283134260086415</v>
       </c>
       <c r="Q5">
-        <v>53.962811495208</v>
+        <v>106.32012672589</v>
       </c>
       <c r="R5">
-        <v>485.665303456872</v>
+        <v>956.8811405330099</v>
       </c>
       <c r="S5">
-        <v>0.002452083838914672</v>
+        <v>0.004066604273575938</v>
       </c>
       <c r="T5">
-        <v>0.002452083838914672</v>
+        <v>0.004066604273575938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1814.685974</v>
       </c>
       <c r="I6">
-        <v>0.8802809712484196</v>
+        <v>0.8244572413758878</v>
       </c>
       <c r="J6">
-        <v>0.8802809712484199</v>
+        <v>0.8244572413758878</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.321725333333333</v>
+        <v>11.22915</v>
       </c>
       <c r="N6">
-        <v>21.965176</v>
+        <v>33.68745</v>
       </c>
       <c r="O6">
-        <v>0.2286194065168946</v>
+        <v>0.3151195889384558</v>
       </c>
       <c r="P6">
-        <v>0.2286194065168946</v>
+        <v>0.3151195889384559</v>
       </c>
       <c r="Q6">
-        <v>4428.877422626824</v>
+        <v>6792.460334980698</v>
       </c>
       <c r="R6">
-        <v>39859.89680364142</v>
+        <v>61132.1430148263</v>
       </c>
       <c r="S6">
-        <v>0.2012493132149293</v>
+        <v>0.259802626999703</v>
       </c>
       <c r="T6">
-        <v>0.2012493132149293</v>
+        <v>0.2598026269997031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1814.685974</v>
       </c>
       <c r="I7">
-        <v>0.8802809712484196</v>
+        <v>0.8244572413758878</v>
       </c>
       <c r="J7">
-        <v>0.8802809712484199</v>
+        <v>0.8244572413758878</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>44.433863</v>
       </c>
       <c r="O7">
-        <v>0.462479489730153</v>
+        <v>0.4156438271079486</v>
       </c>
       <c r="P7">
-        <v>0.462479489730153</v>
+        <v>0.4156438271079486</v>
       </c>
       <c r="Q7">
         <v>8959.278661859729</v>
@@ -883,10 +883,10 @@
         <v>80633.50795673757</v>
       </c>
       <c r="S7">
-        <v>0.4071118944021326</v>
+        <v>0.3426805630923357</v>
       </c>
       <c r="T7">
-        <v>0.4071118944021327</v>
+        <v>0.3426805630923358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1814.685974</v>
       </c>
       <c r="I8">
-        <v>0.8802809712484196</v>
+        <v>0.8244572413758878</v>
       </c>
       <c r="J8">
-        <v>0.8802809712484199</v>
+        <v>0.8244572413758878</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.370601</v>
+        <v>7.711507</v>
       </c>
       <c r="N8">
-        <v>22.111803</v>
+        <v>23.134521</v>
       </c>
       <c r="O8">
-        <v>0.2301455394155954</v>
+        <v>0.2164052413527315</v>
       </c>
       <c r="P8">
-        <v>0.2301455394155954</v>
+        <v>0.2164052413527315</v>
       </c>
       <c r="Q8">
-        <v>4458.442084883458</v>
+        <v>4664.654530434273</v>
       </c>
       <c r="R8">
-        <v>40125.97876395112</v>
+        <v>41981.89077390845</v>
       </c>
       <c r="S8">
-        <v>0.2025927389652517</v>
+        <v>0.1784168683049562</v>
       </c>
       <c r="T8">
-        <v>0.2025927389652518</v>
+        <v>0.1784168683049562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1814.685974</v>
       </c>
       <c r="I9">
-        <v>0.8802809712484196</v>
+        <v>0.8244572413758878</v>
       </c>
       <c r="J9">
-        <v>0.8802809712484199</v>
+        <v>0.8244572413758878</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.522212</v>
+        <v>1.882622</v>
       </c>
       <c r="N9">
-        <v>7.566636</v>
+        <v>5.647866</v>
       </c>
       <c r="O9">
-        <v>0.07875556433735698</v>
+        <v>0.05283134260086414</v>
       </c>
       <c r="P9">
-        <v>0.07875556433735698</v>
+        <v>0.05283134260086415</v>
       </c>
       <c r="Q9">
-        <v>1525.674246618163</v>
+        <v>1138.789245914609</v>
       </c>
       <c r="R9">
-        <v>13731.06821956346</v>
+        <v>10249.10321323148</v>
       </c>
       <c r="S9">
-        <v>0.069327024666106</v>
+        <v>0.04355718297889287</v>
       </c>
       <c r="T9">
-        <v>0.06932702466610602</v>
+        <v>0.04355718297889288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.43348966666667</v>
+        <v>71.60142166666667</v>
       </c>
       <c r="H10">
-        <v>181.300469</v>
+        <v>214.804265</v>
       </c>
       <c r="I10">
-        <v>0.08794654018696571</v>
+        <v>0.09759095198565479</v>
       </c>
       <c r="J10">
-        <v>0.08794654018696572</v>
+        <v>0.09759095198565476</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.321725333333333</v>
+        <v>11.22915</v>
       </c>
       <c r="N10">
-        <v>21.965176</v>
+        <v>33.68745</v>
       </c>
       <c r="O10">
-        <v>0.2286194065168946</v>
+        <v>0.3151195889384558</v>
       </c>
       <c r="P10">
-        <v>0.2286194065168946</v>
+        <v>0.3151195889384559</v>
       </c>
       <c r="Q10">
-        <v>442.4774122741716</v>
+        <v>804.0231041082499</v>
       </c>
       <c r="R10">
-        <v>3982.296710467544</v>
+        <v>7236.20793697425</v>
       </c>
       <c r="S10">
-        <v>0.02010628582275832</v>
+        <v>0.03075282067383212</v>
       </c>
       <c r="T10">
-        <v>0.02010628582275833</v>
+        <v>0.03075282067383211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.43348966666667</v>
+        <v>71.60142166666667</v>
       </c>
       <c r="H11">
-        <v>181.300469</v>
+        <v>214.804265</v>
       </c>
       <c r="I11">
-        <v>0.08794654018696571</v>
+        <v>0.09759095198565479</v>
       </c>
       <c r="J11">
-        <v>0.08794654018696572</v>
+        <v>0.09759095198565476</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>44.433863</v>
       </c>
       <c r="O11">
-        <v>0.462479489730153</v>
+        <v>0.4156438271079486</v>
       </c>
       <c r="P11">
-        <v>0.462479489730153</v>
+        <v>0.4156438271079486</v>
       </c>
       <c r="Q11">
-        <v>895.0978001535275</v>
+        <v>1060.509253647299</v>
       </c>
       <c r="R11">
-        <v>8055.880201381747</v>
+        <v>9544.583282825695</v>
       </c>
       <c r="S11">
-        <v>0.04067347102920029</v>
+        <v>0.04056307677442561</v>
       </c>
       <c r="T11">
-        <v>0.0406734710292003</v>
+        <v>0.0405630767744256</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.43348966666667</v>
+        <v>71.60142166666667</v>
       </c>
       <c r="H12">
-        <v>181.300469</v>
+        <v>214.804265</v>
       </c>
       <c r="I12">
-        <v>0.08794654018696571</v>
+        <v>0.09759095198565479</v>
       </c>
       <c r="J12">
-        <v>0.08794654018696572</v>
+        <v>0.09759095198565476</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.370601</v>
+        <v>7.711507</v>
       </c>
       <c r="N12">
-        <v>22.111803</v>
+        <v>23.134521</v>
       </c>
       <c r="O12">
-        <v>0.2301455394155954</v>
+        <v>0.2164052413527315</v>
       </c>
       <c r="P12">
-        <v>0.2301455394155954</v>
+        <v>0.2164052413527315</v>
       </c>
       <c r="Q12">
-        <v>445.431139370623</v>
+        <v>552.1548643924517</v>
       </c>
       <c r="R12">
-        <v>4008.880254335606</v>
+        <v>4969.393779532064</v>
       </c>
       <c r="S12">
-        <v>0.02024050393106456</v>
+        <v>0.02111919351829845</v>
       </c>
       <c r="T12">
-        <v>0.02024050393106456</v>
+        <v>0.02111919351829845</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.43348966666667</v>
+        <v>71.60142166666667</v>
       </c>
       <c r="H13">
-        <v>181.300469</v>
+        <v>214.804265</v>
       </c>
       <c r="I13">
-        <v>0.08794654018696571</v>
+        <v>0.09759095198565479</v>
       </c>
       <c r="J13">
-        <v>0.08794654018696572</v>
+        <v>0.09759095198565476</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.522212</v>
+        <v>1.882622</v>
       </c>
       <c r="N13">
-        <v>7.566636</v>
+        <v>5.647866</v>
       </c>
       <c r="O13">
-        <v>0.07875556433735698</v>
+        <v>0.05283134260086414</v>
       </c>
       <c r="P13">
-        <v>0.07875556433735698</v>
+        <v>0.05283134260086415</v>
       </c>
       <c r="Q13">
-        <v>152.4260728391427</v>
+        <v>134.7984116609433</v>
       </c>
       <c r="R13">
-        <v>1371.834655552284</v>
+        <v>1213.18570494849</v>
       </c>
       <c r="S13">
-        <v>0.006926279403942529</v>
+        <v>0.005155861019098611</v>
       </c>
       <c r="T13">
-        <v>0.00692627940394253</v>
+        <v>0.00515586101909861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4378016666666666</v>
+        <v>0.717899</v>
       </c>
       <c r="H14">
-        <v>1.313405</v>
+        <v>2.153697</v>
       </c>
       <c r="I14">
-        <v>0.0006371159779750029</v>
+        <v>0.0009784784325332122</v>
       </c>
       <c r="J14">
-        <v>0.000637115977975003</v>
+        <v>0.000978478432533212</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.321725333333333</v>
+        <v>11.22915</v>
       </c>
       <c r="N14">
-        <v>21.965176</v>
+        <v>33.68745</v>
       </c>
       <c r="O14">
-        <v>0.2286194065168946</v>
+        <v>0.3151195889384558</v>
       </c>
       <c r="P14">
-        <v>0.2286194065168946</v>
+        <v>0.3151195889384559</v>
       </c>
       <c r="Q14">
-        <v>3.205463553808888</v>
+        <v>8.061395555849998</v>
       </c>
       <c r="R14">
-        <v>28.84917198428</v>
+        <v>72.55256000264998</v>
       </c>
       <c r="S14">
-        <v>0.0001456570767670761</v>
+        <v>0.0003083377214450104</v>
       </c>
       <c r="T14">
-        <v>0.0001456570767670761</v>
+        <v>0.0003083377214450104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4378016666666666</v>
+        <v>0.717899</v>
       </c>
       <c r="H15">
-        <v>1.313405</v>
+        <v>2.153697</v>
       </c>
       <c r="I15">
-        <v>0.0006371159779750029</v>
+        <v>0.0009784784325332122</v>
       </c>
       <c r="J15">
-        <v>0.000637115977975003</v>
+        <v>0.000978478432533212</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>44.433863</v>
       </c>
       <c r="O15">
-        <v>0.462479489730153</v>
+        <v>0.4156438271079486</v>
       </c>
       <c r="P15">
-        <v>0.462479489730153</v>
+        <v>0.4156438271079486</v>
       </c>
       <c r="Q15">
-        <v>6.484406425946111</v>
+        <v>10.63300860461233</v>
       </c>
       <c r="R15">
-        <v>58.359657833515</v>
+        <v>95.697077441511</v>
       </c>
       <c r="S15">
-        <v>0.0002946530723928067</v>
+        <v>0.000406698520440691</v>
       </c>
       <c r="T15">
-        <v>0.0002946530723928068</v>
+        <v>0.0004066985204406909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4378016666666666</v>
+        <v>0.717899</v>
       </c>
       <c r="H16">
-        <v>1.313405</v>
+        <v>2.153697</v>
       </c>
       <c r="I16">
-        <v>0.0006371159779750029</v>
+        <v>0.0009784784325332122</v>
       </c>
       <c r="J16">
-        <v>0.000637115977975003</v>
+        <v>0.000978478432533212</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.370601</v>
+        <v>7.711507</v>
       </c>
       <c r="N16">
-        <v>22.111803</v>
+        <v>23.134521</v>
       </c>
       <c r="O16">
-        <v>0.2301455394155954</v>
+        <v>0.2164052413527315</v>
       </c>
       <c r="P16">
-        <v>0.2301455394155954</v>
+        <v>0.2164052413527315</v>
       </c>
       <c r="Q16">
-        <v>3.226861402135</v>
+        <v>5.536083163793</v>
       </c>
       <c r="R16">
-        <v>29.041752619215</v>
+        <v>49.824748474137</v>
       </c>
       <c r="S16">
-        <v>0.0001466294004213516</v>
+        <v>0.0002117478613507922</v>
       </c>
       <c r="T16">
-        <v>0.0001466294004213517</v>
+        <v>0.0002117478613507922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4378016666666666</v>
+        <v>0.717899</v>
       </c>
       <c r="H17">
-        <v>1.313405</v>
+        <v>2.153697</v>
       </c>
       <c r="I17">
-        <v>0.0006371159779750029</v>
+        <v>0.0009784784325332122</v>
       </c>
       <c r="J17">
-        <v>0.000637115977975003</v>
+        <v>0.000978478432533212</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.522212</v>
+        <v>1.882622</v>
       </c>
       <c r="N17">
-        <v>7.566636</v>
+        <v>5.647866</v>
       </c>
       <c r="O17">
-        <v>0.07875556433735698</v>
+        <v>0.05283134260086414</v>
       </c>
       <c r="P17">
-        <v>0.07875556433735698</v>
+        <v>0.05283134260086415</v>
       </c>
       <c r="Q17">
-        <v>1.104228617286667</v>
+        <v>1.351532451178</v>
       </c>
       <c r="R17">
-        <v>9.938057555579999</v>
+        <v>12.163792060602</v>
       </c>
       <c r="S17">
-        <v>5.017642839376845E-05</v>
+        <v>5.169432929671866E-05</v>
       </c>
       <c r="T17">
-        <v>5.017642839376846E-05</v>
+        <v>5.169432929671866E-05</v>
       </c>
     </row>
   </sheetData>
